--- a/natmiOut/OldD4/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07591160393862641</v>
+        <v>0.088422</v>
       </c>
       <c r="H2">
-        <v>0.07591160393862641</v>
+        <v>0.265266</v>
       </c>
       <c r="I2">
-        <v>0.06810182303176432</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J2">
-        <v>0.06810182303176432</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.155187815763959</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N2">
-        <v>0.155187815763959</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O2">
-        <v>0.02255027973165014</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P2">
-        <v>0.02255027973165014</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q2">
-        <v>0.01178055600637418</v>
+        <v>0.014504685932</v>
       </c>
       <c r="R2">
-        <v>0.01178055600637418</v>
+        <v>0.130542173388</v>
       </c>
       <c r="S2">
-        <v>0.001535715159601619</v>
+        <v>0.001070365143098695</v>
       </c>
       <c r="T2">
-        <v>0.001535715159601619</v>
+        <v>0.001544685552548005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07591160393862641</v>
+        <v>0.088422</v>
       </c>
       <c r="H3">
-        <v>0.07591160393862641</v>
+        <v>0.265266</v>
       </c>
       <c r="I3">
-        <v>0.06810182303176432</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J3">
-        <v>0.06810182303176432</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.478789175011558</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N3">
-        <v>0.478789175011558</v>
+        <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.06957266442501277</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P3">
-        <v>0.06957266442501277</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q3">
-        <v>0.03634565422357907</v>
+        <v>0.01337441698</v>
       </c>
       <c r="R3">
-        <v>0.03634565422357907</v>
+        <v>0.12036975282</v>
       </c>
       <c r="S3">
-        <v>0.004738025280520544</v>
+        <v>0.0009869575812790736</v>
       </c>
       <c r="T3">
-        <v>0.004738025280520544</v>
+        <v>0.001424316857297861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07591160393862641</v>
+        <v>0.088422</v>
       </c>
       <c r="H4">
-        <v>0.07591160393862641</v>
+        <v>0.265266</v>
       </c>
       <c r="I4">
-        <v>0.06810182303176432</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J4">
-        <v>0.06810182303176432</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.24788068951513</v>
+        <v>0.524817</v>
       </c>
       <c r="N4">
-        <v>6.24788068951513</v>
+        <v>1.574451</v>
       </c>
       <c r="O4">
-        <v>0.907877055843337</v>
+        <v>0.06453328970044923</v>
       </c>
       <c r="P4">
-        <v>0.907877055843337</v>
+        <v>0.08887610759192668</v>
       </c>
       <c r="Q4">
-        <v>0.4742866443582646</v>
+        <v>0.046405368774</v>
       </c>
       <c r="R4">
-        <v>0.4742866443582646</v>
+        <v>0.417648318966</v>
       </c>
       <c r="S4">
-        <v>0.06182808259164215</v>
+        <v>0.003424458097279279</v>
       </c>
       <c r="T4">
-        <v>0.06182808259164215</v>
+        <v>0.004941968619101028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.567666244447911</v>
+        <v>0.088422</v>
       </c>
       <c r="H5">
-        <v>0.567666244447911</v>
+        <v>0.265266</v>
       </c>
       <c r="I5">
-        <v>0.5092647779087017</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J5">
-        <v>0.5092647779087017</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.155187815763959</v>
+        <v>0.6100073333333333</v>
       </c>
       <c r="N5">
-        <v>0.155187815763959</v>
+        <v>1.830022</v>
       </c>
       <c r="O5">
-        <v>0.02255027973165014</v>
+        <v>0.07500858387094646</v>
       </c>
       <c r="P5">
-        <v>0.02255027973165014</v>
+        <v>0.1033028224870719</v>
       </c>
       <c r="Q5">
-        <v>0.08809488455880092</v>
+        <v>0.053938068428</v>
       </c>
       <c r="R5">
-        <v>0.08809488455880092</v>
+        <v>0.485442615852</v>
       </c>
       <c r="S5">
-        <v>0.01148406319931791</v>
+        <v>0.003980329432989163</v>
       </c>
       <c r="T5">
-        <v>0.01148406319931791</v>
+        <v>0.005744168155290005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.567666244447911</v>
+        <v>0.088422</v>
       </c>
       <c r="H6">
-        <v>0.567666244447911</v>
+        <v>0.265266</v>
       </c>
       <c r="I6">
-        <v>0.5092647779087017</v>
+        <v>0.05306498573333137</v>
       </c>
       <c r="J6">
-        <v>0.5092647779087017</v>
+        <v>0.05560514240556082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.478789175011558</v>
+        <v>6.68238</v>
       </c>
       <c r="N6">
-        <v>0.478789175011558</v>
+        <v>13.36476</v>
       </c>
       <c r="O6">
-        <v>0.06957266442501277</v>
+        <v>0.8216882540552003</v>
       </c>
       <c r="P6">
-        <v>0.06957266442501277</v>
+        <v>0.7544266844127117</v>
       </c>
       <c r="Q6">
-        <v>0.2717924528611247</v>
+        <v>0.59086940436</v>
       </c>
       <c r="R6">
-        <v>0.2717924528611247</v>
+        <v>3.54521642616</v>
       </c>
       <c r="S6">
-        <v>0.03543090749692076</v>
+        <v>0.04360287547868517</v>
       </c>
       <c r="T6">
-        <v>0.03543090749692076</v>
+        <v>0.04195000322132392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.567666244447911</v>
+        <v>1.011337</v>
       </c>
       <c r="H7">
-        <v>0.567666244447911</v>
+        <v>3.034011</v>
       </c>
       <c r="I7">
-        <v>0.5092647779087017</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J7">
-        <v>0.5092647779087017</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.24788068951513</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N7">
-        <v>6.24788068951513</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O7">
-        <v>0.907877055843337</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P7">
-        <v>0.907877055843337</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q7">
-        <v>3.546710966775679</v>
+        <v>0.1658990472553333</v>
       </c>
       <c r="R7">
-        <v>3.546710966775679</v>
+        <v>1.493091425298</v>
       </c>
       <c r="S7">
-        <v>0.462349807212463</v>
+        <v>0.01224242691554144</v>
       </c>
       <c r="T7">
-        <v>0.462349807212463</v>
+        <v>0.01766752225302801</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.125172837225396</v>
+        <v>1.011337</v>
       </c>
       <c r="H8">
-        <v>0.125172837225396</v>
+        <v>3.034011</v>
       </c>
       <c r="I8">
-        <v>0.1122950638218593</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J8">
-        <v>0.1122950638218593</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.155187815763959</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N8">
-        <v>0.155187815763959</v>
+        <v>0.45377</v>
       </c>
       <c r="O8">
-        <v>0.02255027973165014</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P8">
-        <v>0.02255027973165014</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q8">
-        <v>0.01942529920198678</v>
+        <v>0.1529714634966667</v>
       </c>
       <c r="R8">
-        <v>0.01942529920198678</v>
+        <v>1.37674317147</v>
       </c>
       <c r="S8">
-        <v>0.002532285101666432</v>
+        <v>0.01128844314059888</v>
       </c>
       <c r="T8">
-        <v>0.002532285101666432</v>
+        <v>0.01629079117763731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.125172837225396</v>
+        <v>1.011337</v>
       </c>
       <c r="H9">
-        <v>0.125172837225396</v>
+        <v>3.034011</v>
       </c>
       <c r="I9">
-        <v>0.1122950638218593</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J9">
-        <v>0.1122950638218593</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.478789175011558</v>
+        <v>0.524817</v>
       </c>
       <c r="N9">
-        <v>0.478789175011558</v>
+        <v>1.574451</v>
       </c>
       <c r="O9">
-        <v>0.06957266442501277</v>
+        <v>0.06453328970044923</v>
       </c>
       <c r="P9">
-        <v>0.06957266442501277</v>
+        <v>0.08887610759192668</v>
       </c>
       <c r="Q9">
-        <v>0.05993139946900338</v>
+        <v>0.530766850329</v>
       </c>
       <c r="R9">
-        <v>0.05993139946900338</v>
+        <v>4.776901652961</v>
       </c>
       <c r="S9">
-        <v>0.007812666791863609</v>
+        <v>0.03916764129660191</v>
       </c>
       <c r="T9">
-        <v>0.007812666791863609</v>
+        <v>0.05652434594711471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.125172837225396</v>
+        <v>1.011337</v>
       </c>
       <c r="H10">
-        <v>0.125172837225396</v>
+        <v>3.034011</v>
       </c>
       <c r="I10">
-        <v>0.1122950638218593</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J10">
-        <v>0.1122950638218593</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>6.24788068951513</v>
+        <v>0.6100073333333333</v>
       </c>
       <c r="N10">
-        <v>6.24788068951513</v>
+        <v>1.830022</v>
       </c>
       <c r="O10">
-        <v>0.907877055843337</v>
+        <v>0.07500858387094646</v>
       </c>
       <c r="P10">
-        <v>0.907877055843337</v>
+        <v>0.1033028224870719</v>
       </c>
       <c r="Q10">
-        <v>0.7820649525523722</v>
+        <v>0.6169229864713333</v>
       </c>
       <c r="R10">
-        <v>0.7820649525523722</v>
+        <v>5.552306878242</v>
       </c>
       <c r="S10">
-        <v>0.1019501119283293</v>
+        <v>0.04552548492197599</v>
       </c>
       <c r="T10">
-        <v>0.1019501119283293</v>
+        <v>0.06569959726840072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.183277332420736</v>
+        <v>1.011337</v>
       </c>
       <c r="H11">
-        <v>0.183277332420736</v>
+        <v>3.034011</v>
       </c>
       <c r="I11">
-        <v>0.1644217723069316</v>
+        <v>0.6069370007078572</v>
       </c>
       <c r="J11">
-        <v>0.1644217723069316</v>
+        <v>0.6359903406958977</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.155187815763959</v>
+        <v>6.68238</v>
       </c>
       <c r="N11">
-        <v>0.155187815763959</v>
+        <v>13.36476</v>
       </c>
       <c r="O11">
-        <v>0.02255027973165014</v>
+        <v>0.8216882540552003</v>
       </c>
       <c r="P11">
-        <v>0.02255027973165014</v>
+        <v>0.7544266844127117</v>
       </c>
       <c r="Q11">
-        <v>0.02844240889741904</v>
+        <v>6.75813814206</v>
       </c>
       <c r="R11">
-        <v>0.02844240889741904</v>
+        <v>40.54882885236</v>
       </c>
       <c r="S11">
-        <v>0.003707756959494993</v>
+        <v>0.498713004433139</v>
       </c>
       <c r="T11">
-        <v>0.003707756959494993</v>
+        <v>0.479808084049717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.183277332420736</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H12">
-        <v>0.183277332420736</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I12">
-        <v>0.1644217723069316</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J12">
-        <v>0.1644217723069316</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.478789175011558</v>
+        <v>0.1640393333333333</v>
       </c>
       <c r="N12">
-        <v>0.478789175011558</v>
+        <v>0.4921179999999999</v>
       </c>
       <c r="O12">
-        <v>0.06957266442501277</v>
+        <v>0.02017083634918183</v>
       </c>
       <c r="P12">
-        <v>0.06957266442501277</v>
+        <v>0.02777954494355415</v>
       </c>
       <c r="Q12">
-        <v>0.08775120278804326</v>
+        <v>0.02232668282288888</v>
       </c>
       <c r="R12">
-        <v>0.08775120278804326</v>
+        <v>0.2009401454059999</v>
       </c>
       <c r="S12">
-        <v>0.01143926078887601</v>
+        <v>0.001647585005747551</v>
       </c>
       <c r="T12">
-        <v>0.01143926078887601</v>
+        <v>0.002377693977968318</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.183277332420736</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H13">
-        <v>0.183277332420736</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I13">
-        <v>0.1644217723069316</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J13">
-        <v>0.1644217723069316</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>6.24788068951513</v>
+        <v>0.1512566666666667</v>
       </c>
       <c r="N13">
-        <v>6.24788068951513</v>
+        <v>0.45377</v>
       </c>
       <c r="O13">
-        <v>0.907877055843337</v>
+        <v>0.01859903602422232</v>
       </c>
       <c r="P13">
-        <v>0.907877055843337</v>
+        <v>0.02561484056473563</v>
       </c>
       <c r="Q13">
-        <v>1.145094906057362</v>
+        <v>0.02058688945444444</v>
       </c>
       <c r="R13">
-        <v>1.145094906057362</v>
+        <v>0.18528200509</v>
       </c>
       <c r="S13">
-        <v>0.1492747545585606</v>
+        <v>0.001519197932321245</v>
       </c>
       <c r="T13">
-        <v>0.1492747545585606</v>
+        <v>0.002192413600767872</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.162649982631416</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H14">
-        <v>0.162649982631416</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I14">
-        <v>0.1459165629307432</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J14">
-        <v>0.1459165629307432</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.155187815763959</v>
+        <v>0.524817</v>
       </c>
       <c r="N14">
-        <v>0.155187815763959</v>
+        <v>1.574451</v>
       </c>
       <c r="O14">
-        <v>0.02255027973165014</v>
+        <v>0.06453328970044923</v>
       </c>
       <c r="P14">
-        <v>0.02255027973165014</v>
+        <v>0.08887610759192668</v>
       </c>
       <c r="Q14">
-        <v>0.02524129553861532</v>
+        <v>0.07143056766299999</v>
       </c>
       <c r="R14">
-        <v>0.02524129553861532</v>
+        <v>0.6428751089669998</v>
       </c>
       <c r="S14">
-        <v>0.00329045931156919</v>
+        <v>0.005271178578886036</v>
       </c>
       <c r="T14">
-        <v>0.00329045931156919</v>
+        <v>0.007607042744435676</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.162649982631416</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H15">
-        <v>0.162649982631416</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I15">
-        <v>0.1459165629307432</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J15">
-        <v>0.1459165629307432</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.478789175011558</v>
+        <v>0.6100073333333333</v>
       </c>
       <c r="N15">
-        <v>0.478789175011558</v>
+        <v>1.830022</v>
       </c>
       <c r="O15">
-        <v>0.06957266442501277</v>
+        <v>0.07500858387094646</v>
       </c>
       <c r="P15">
-        <v>0.06957266442501277</v>
+        <v>0.1033028224870719</v>
       </c>
       <c r="Q15">
-        <v>0.0778750509997399</v>
+        <v>0.08302545477488889</v>
       </c>
       <c r="R15">
-        <v>0.0778750509997399</v>
+        <v>0.7472290929739999</v>
       </c>
       <c r="S15">
-        <v>0.01015180406683185</v>
+        <v>0.006126816754087731</v>
       </c>
       <c r="T15">
-        <v>0.01015180406683185</v>
+        <v>0.008841847461278673</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.162649982631416</v>
+        <v>0.1361056666666667</v>
       </c>
       <c r="H16">
-        <v>0.162649982631416</v>
+        <v>0.4083169999999999</v>
       </c>
       <c r="I16">
-        <v>0.1459165629307432</v>
+        <v>0.08168154147036055</v>
       </c>
       <c r="J16">
-        <v>0.1459165629307432</v>
+        <v>0.08559153804713522</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.24788068951513</v>
+        <v>6.68238</v>
       </c>
       <c r="N16">
-        <v>6.24788068951513</v>
+        <v>13.36476</v>
       </c>
       <c r="O16">
-        <v>0.907877055843337</v>
+        <v>0.8216882540552003</v>
       </c>
       <c r="P16">
-        <v>0.907877055843337</v>
+        <v>0.7544266844127117</v>
       </c>
       <c r="Q16">
-        <v>1.016217685632795</v>
+        <v>0.9095097848199999</v>
       </c>
       <c r="R16">
-        <v>1.016217685632795</v>
+        <v>5.457058708919999</v>
       </c>
       <c r="S16">
-        <v>0.1324742995523421</v>
+        <v>0.067116763199318</v>
       </c>
       <c r="T16">
-        <v>0.1324742995523421</v>
+        <v>0.06457254026268469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2020723333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.606217</v>
+      </c>
+      <c r="I17">
+        <v>0.1212703341412128</v>
+      </c>
+      <c r="J17">
+        <v>0.1270753983310031</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P17">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q17">
+        <v>0.03314781084511111</v>
+      </c>
+      <c r="R17">
+        <v>0.298330297606</v>
+      </c>
+      <c r="S17">
+        <v>0.002446124063973</v>
+      </c>
+      <c r="T17">
+        <v>0.003530096739156146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2020723333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.606217</v>
+      </c>
+      <c r="I18">
+        <v>0.1212703341412128</v>
+      </c>
+      <c r="J18">
+        <v>0.1270753983310031</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.45377</v>
+      </c>
+      <c r="O18">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P18">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q18">
+        <v>0.03056478756555556</v>
+      </c>
+      <c r="R18">
+        <v>0.27508308809</v>
+      </c>
+      <c r="S18">
+        <v>0.002255511313361894</v>
+      </c>
+      <c r="T18">
+        <v>0.003255016067948916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2020723333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.606217</v>
+      </c>
+      <c r="I19">
+        <v>0.1212703341412128</v>
+      </c>
+      <c r="J19">
+        <v>0.1270753983310031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.524817</v>
+      </c>
+      <c r="N19">
+        <v>1.574451</v>
+      </c>
+      <c r="O19">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P19">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q19">
+        <v>0.106050995763</v>
+      </c>
+      <c r="R19">
+        <v>0.9544589618669999</v>
+      </c>
+      <c r="S19">
+        <v>0.007825973605205162</v>
+      </c>
+      <c r="T19">
+        <v>0.01129396677435317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2020723333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.606217</v>
+      </c>
+      <c r="I20">
+        <v>0.1212703341412128</v>
+      </c>
+      <c r="J20">
+        <v>0.1270753983310031</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.830022</v>
+      </c>
+      <c r="O20">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P20">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q20">
+        <v>0.1232656051971111</v>
+      </c>
+      <c r="R20">
+        <v>1.109390446774</v>
+      </c>
+      <c r="S20">
+        <v>0.009096316029488859</v>
+      </c>
+      <c r="T20">
+        <v>0.01312724731626157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2020723333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.606217</v>
+      </c>
+      <c r="I21">
+        <v>0.1212703341412128</v>
+      </c>
+      <c r="J21">
+        <v>0.1270753983310031</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.68238</v>
+      </c>
+      <c r="N21">
+        <v>13.36476</v>
+      </c>
+      <c r="O21">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P21">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q21">
+        <v>1.35032411882</v>
+      </c>
+      <c r="R21">
+        <v>8.10194471292</v>
+      </c>
+      <c r="S21">
+        <v>0.09964640912918386</v>
+      </c>
+      <c r="T21">
+        <v>0.0958690714332833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2283595</v>
+      </c>
+      <c r="H22">
+        <v>0.456719</v>
+      </c>
+      <c r="I22">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J22">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1640393333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.4921179999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.02017083634918183</v>
+      </c>
+      <c r="P22">
+        <v>0.02777954494355415</v>
+      </c>
+      <c r="Q22">
+        <v>0.03745994014033333</v>
+      </c>
+      <c r="R22">
+        <v>0.224759640842</v>
+      </c>
+      <c r="S22">
+        <v>0.002764335220821137</v>
+      </c>
+      <c r="T22">
+        <v>0.002659546420853681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2283595</v>
+      </c>
+      <c r="H23">
+        <v>0.456719</v>
+      </c>
+      <c r="I23">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J23">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1512566666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.45377</v>
+      </c>
+      <c r="O23">
+        <v>0.01859903602422232</v>
+      </c>
+      <c r="P23">
+        <v>0.02561484056473563</v>
+      </c>
+      <c r="Q23">
+        <v>0.03454089677166667</v>
+      </c>
+      <c r="R23">
+        <v>0.20724538063</v>
+      </c>
+      <c r="S23">
+        <v>0.002548926056661222</v>
+      </c>
+      <c r="T23">
+        <v>0.002452302861083673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2283595</v>
+      </c>
+      <c r="H24">
+        <v>0.456719</v>
+      </c>
+      <c r="I24">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J24">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.524817</v>
+      </c>
+      <c r="N24">
+        <v>1.574451</v>
+      </c>
+      <c r="O24">
+        <v>0.06453328970044923</v>
+      </c>
+      <c r="P24">
+        <v>0.08887610759192668</v>
+      </c>
+      <c r="Q24">
+        <v>0.1198469477115</v>
+      </c>
+      <c r="R24">
+        <v>0.7190816862689999</v>
+      </c>
+      <c r="S24">
+        <v>0.008844038122476843</v>
+      </c>
+      <c r="T24">
+        <v>0.008508783506922118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2283595</v>
+      </c>
+      <c r="H25">
+        <v>0.456719</v>
+      </c>
+      <c r="I25">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J25">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.6100073333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.830022</v>
+      </c>
+      <c r="O25">
+        <v>0.07500858387094646</v>
+      </c>
+      <c r="P25">
+        <v>0.1033028224870719</v>
+      </c>
+      <c r="Q25">
+        <v>0.1393009696363333</v>
+      </c>
+      <c r="R25">
+        <v>0.835805817818</v>
+      </c>
+      <c r="S25">
+        <v>0.0102796367324047</v>
+      </c>
+      <c r="T25">
+        <v>0.009889962285840988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2283595</v>
+      </c>
+      <c r="H26">
+        <v>0.456719</v>
+      </c>
+      <c r="I26">
+        <v>0.1370461379472381</v>
+      </c>
+      <c r="J26">
+        <v>0.0957375805204034</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.68238</v>
+      </c>
+      <c r="N26">
+        <v>13.36476</v>
+      </c>
+      <c r="O26">
+        <v>0.8216882540552003</v>
+      </c>
+      <c r="P26">
+        <v>0.7544266844127117</v>
+      </c>
+      <c r="Q26">
+        <v>1.52598495561</v>
+      </c>
+      <c r="R26">
+        <v>6.10393982244</v>
+      </c>
+      <c r="S26">
+        <v>0.1126092018148742</v>
+      </c>
+      <c r="T26">
+        <v>0.07222698544570295</v>
       </c>
     </row>
   </sheetData>
